--- a/Manuscript_items/Framingham_table.xlsx
+++ b/Manuscript_items/Framingham_table.xlsx
@@ -414,13 +414,13 @@
         <v>2007</v>
       </c>
       <c r="C2">
-        <v>0.06511405986804314</v>
+        <v>0.06321740579025732</v>
       </c>
       <c r="D2">
-        <v>0.05914016787809211</v>
+        <v>0.05760272671847694</v>
       </c>
       <c r="E2">
-        <v>0.07108795185799417</v>
+        <v>0.06883208486203769</v>
       </c>
       <c r="F2">
         <v>0.0578</v>
@@ -432,7 +432,7 @@
         <v>0.05966010752377383</v>
       </c>
       <c r="I2">
-        <v>1.126540828166836</v>
+        <v>1.093726743776078</v>
       </c>
     </row>
     <row r="3">
@@ -445,13 +445,13 @@
         <v>2007</v>
       </c>
       <c r="C3">
-        <v>0.05984838409148992</v>
+        <v>0.05846050987338999</v>
       </c>
       <c r="D3">
-        <v>0.05078978457288401</v>
+        <v>0.04958753697504835</v>
       </c>
       <c r="E3">
-        <v>0.06890698361009584</v>
+        <v>0.06733348277173162</v>
       </c>
       <c r="F3">
         <v>0.0808</v>
@@ -463,7 +463,7 @@
         <v>0.08684648658313239</v>
       </c>
       <c r="I3">
-        <v>0.7406978229144793</v>
+        <v>0.7235211617993811</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>2007</v>
       </c>
       <c r="C4">
-        <v>0.06586879342804738</v>
+        <v>0.06389921552223761</v>
       </c>
       <c r="D4">
-        <v>0.05906560261594868</v>
+        <v>0.05748727097485078</v>
       </c>
       <c r="E4">
-        <v>0.07267198424014609</v>
+        <v>0.07031116006962444</v>
       </c>
       <c r="F4">
         <v>0.0506</v>
@@ -494,7 +494,7 @@
         <v>0.05281810730128188</v>
       </c>
       <c r="I4">
-        <v>1.301754810830976</v>
+        <v>1.262830346289281</v>
       </c>
     </row>
     <row r="5">
@@ -507,13 +507,13 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>0.06615818668974466</v>
+        <v>0.0645585162560791</v>
       </c>
       <c r="D5">
-        <v>0.06229378301453864</v>
+        <v>0.06113540643911238</v>
       </c>
       <c r="E5">
-        <v>0.07002259036495068</v>
+        <v>0.06798162607304582</v>
       </c>
       <c r="F5">
         <v>0.0618</v>
@@ -525,7 +525,7 @@
         <v>0.06395870331449229</v>
       </c>
       <c r="I5">
-        <v>1.070520820222406</v>
+        <v>1.044636185373448</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>0.06442788837386136</v>
+        <v>0.06349479094340518</v>
       </c>
       <c r="D6">
-        <v>0.05690004997931242</v>
+        <v>0.05628168911203276</v>
       </c>
       <c r="E6">
-        <v>0.07195572676841031</v>
+        <v>0.0707078927747776</v>
       </c>
       <c r="F6">
         <v>0.0844</v>
@@ -556,7 +556,7 @@
         <v>0.09204656785754237</v>
       </c>
       <c r="I6">
-        <v>0.7633636063253716</v>
+        <v>0.7523079495664121</v>
       </c>
     </row>
     <row r="7">
@@ -569,13 +569,13 @@
         <v>2009</v>
       </c>
       <c r="C7">
-        <v>0.06641275243024067</v>
+        <v>0.06471501413821854</v>
       </c>
       <c r="D7">
-        <v>0.06208416148758331</v>
+        <v>0.06083872001924723</v>
       </c>
       <c r="E7">
-        <v>0.07074134337289803</v>
+        <v>0.06859130825718984</v>
       </c>
       <c r="F7">
         <v>0.0543</v>
@@ -587,7 +587,7 @@
         <v>0.05693628526529282</v>
       </c>
       <c r="I7">
-        <v>1.22307094714992</v>
+        <v>1.191805048585977</v>
       </c>
     </row>
     <row r="8">
@@ -600,13 +600,13 @@
         <v>2011</v>
       </c>
       <c r="C8">
-        <v>0.06640484841230145</v>
+        <v>0.06459541615483741</v>
       </c>
       <c r="D8">
-        <v>0.06305634900252506</v>
+        <v>0.06165664207196011</v>
       </c>
       <c r="E8">
-        <v>0.06975334782207783</v>
+        <v>0.0675341902377147</v>
       </c>
       <c r="F8">
         <v>0.0629</v>
@@ -618,7 +618,7 @@
         <v>0.06518910462845191</v>
       </c>
       <c r="I8">
-        <v>1.055720960449944</v>
+        <v>1.026954151905205</v>
       </c>
     </row>
     <row r="9">
@@ -631,25 +631,25 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>0.05869006552496436</v>
+        <v>0.05752099217395259</v>
       </c>
       <c r="D9">
-        <v>0.05440983169924041</v>
+        <v>0.05355354490759429</v>
       </c>
       <c r="E9">
-        <v>0.06297029935068829</v>
+        <v>0.06148843944031088</v>
       </c>
       <c r="F9">
         <v>0.08929999999999999</v>
       </c>
       <c r="G9">
-        <v>0.08119629714266372</v>
+        <v>0.08119629714266371</v>
       </c>
       <c r="H9">
         <v>0.09740370285733627</v>
       </c>
       <c r="I9">
-        <v>0.6572235781071038</v>
+        <v>0.6441320512200739</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>0.06757460196201574</v>
+        <v>0.06566807531902555</v>
       </c>
       <c r="D10">
-        <v>0.0637880701255174</v>
+        <v>0.06228943493235032</v>
       </c>
       <c r="E10">
-        <v>0.07136113379851408</v>
+        <v>0.06904671570570077</v>
       </c>
       <c r="F10">
         <v>0.0546</v>
@@ -680,7 +680,7 @@
         <v>0.05739642629082192</v>
       </c>
       <c r="I10">
-        <v>1.237630072564391</v>
+        <v>1.202712002179955</v>
       </c>
     </row>
     <row r="11">
@@ -693,13 +693,13 @@
         <v>2013</v>
       </c>
       <c r="C11">
-        <v>0.06612734038737307</v>
+        <v>0.06481096298849191</v>
       </c>
       <c r="D11">
-        <v>0.06131283017797034</v>
+        <v>0.06023436688911997</v>
       </c>
       <c r="E11">
-        <v>0.0709418505967758</v>
+        <v>0.06938755908786386</v>
       </c>
       <c r="F11">
         <v>0.0618</v>
@@ -711,7 +711,7 @@
         <v>0.06406053091109146</v>
       </c>
       <c r="I11">
-        <v>1.070021689116069</v>
+        <v>1.04872108395618</v>
       </c>
     </row>
     <row r="12">
@@ -724,25 +724,25 @@
         <v>2013</v>
       </c>
       <c r="C12">
-        <v>0.06299905485980835</v>
+        <v>0.06164000905069383</v>
       </c>
       <c r="D12">
-        <v>0.05669898912100837</v>
+        <v>0.05557407636531599</v>
       </c>
       <c r="E12">
-        <v>0.06929912059860834</v>
+        <v>0.06770594173607167</v>
       </c>
       <c r="F12">
         <v>0.0878</v>
       </c>
       <c r="G12">
-        <v>0.08001925453442924</v>
+        <v>0.08001925453442923</v>
       </c>
       <c r="H12">
         <v>0.09558074546557077</v>
       </c>
       <c r="I12">
-        <v>0.7175290986310745</v>
+        <v>0.7020502169782896</v>
       </c>
     </row>
     <row r="13">
@@ -755,13 +755,13 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.06660325413157781</v>
+        <v>0.06529336798251846</v>
       </c>
       <c r="D13">
-        <v>0.06102960712758633</v>
+        <v>0.0599590063677841</v>
       </c>
       <c r="E13">
-        <v>0.07217690113556928</v>
+        <v>0.07062772959725282</v>
       </c>
       <c r="F13">
         <v>0.0533</v>
@@ -773,7 +773,7 @@
         <v>0.05609642629082191</v>
       </c>
       <c r="I13">
-        <v>1.249592009973317</v>
+        <v>1.225016284850253</v>
       </c>
     </row>
     <row r="14">
@@ -786,13 +786,13 @@
         <v>2015</v>
       </c>
       <c r="C14">
-        <v>0.06466396144947738</v>
+        <v>0.06276406020977815</v>
       </c>
       <c r="D14">
-        <v>0.060043747121945</v>
+        <v>0.05844030268968881</v>
       </c>
       <c r="E14">
-        <v>0.06928417577700975</v>
+        <v>0.06708781772986749</v>
       </c>
       <c r="F14">
         <v>0.0593</v>
@@ -804,7 +804,7 @@
         <v>0.06143307290077015</v>
       </c>
       <c r="I14">
-        <v>1.090454661879888</v>
+        <v>1.058415855139598</v>
       </c>
     </row>
     <row r="15">
@@ -817,13 +817,13 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0.05175281358112829</v>
+        <v>0.05055531369955198</v>
       </c>
       <c r="D15">
-        <v>0.04036776546285483</v>
+        <v>0.03973080379696543</v>
       </c>
       <c r="E15">
-        <v>0.06313786169940175</v>
+        <v>0.06137982360213853</v>
       </c>
       <c r="F15">
         <v>0.08649999999999999</v>
@@ -835,7 +835,7 @@
         <v>0.09420389511870456</v>
       </c>
       <c r="I15">
-        <v>0.5982984229032173</v>
+        <v>0.5844544936364392</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>2015</v>
       </c>
       <c r="C16">
-        <v>0.06662008475156987</v>
+        <v>0.06461376511452474</v>
       </c>
       <c r="D16">
-        <v>0.06155038285369414</v>
+        <v>0.05977659527457654</v>
       </c>
       <c r="E16">
-        <v>0.0716897866494456</v>
+        <v>0.06945093495447295</v>
       </c>
       <c r="F16">
         <v>0.0503</v>
@@ -866,7 +866,7 @@
         <v>0.053</v>
       </c>
       <c r="I16">
-        <v>1.324454965239958</v>
+        <v>1.284567894920969</v>
       </c>
     </row>
     <row r="17">
@@ -879,13 +879,13 @@
         <v>2017</v>
       </c>
       <c r="C17">
-        <v>0.06718114810447848</v>
+        <v>0.06537671845247779</v>
       </c>
       <c r="D17">
-        <v>0.06164140658893602</v>
+        <v>0.06031019211398431</v>
       </c>
       <c r="E17">
-        <v>0.07272088962002093</v>
+        <v>0.07044324479097128</v>
       </c>
       <c r="F17">
         <v>0.0555</v>
@@ -897,7 +897,7 @@
         <v>0.05739472953214964</v>
       </c>
       <c r="I17">
-        <v>1.21047113701763</v>
+        <v>1.177958891035636</v>
       </c>
     </row>
     <row r="18">
@@ -910,13 +910,13 @@
         <v>2017</v>
       </c>
       <c r="C18">
-        <v>0.06393471009440341</v>
+        <v>0.06286721294910663</v>
       </c>
       <c r="D18">
-        <v>0.05746810162822449</v>
+        <v>0.05663903998561903</v>
       </c>
       <c r="E18">
-        <v>0.07040131856058232</v>
+        <v>0.06909538591259425</v>
       </c>
       <c r="F18">
         <v>0.082</v>
@@ -928,7 +928,7 @@
         <v>0.08847996913572898</v>
       </c>
       <c r="I18">
-        <v>0.7796915865171147</v>
+        <v>0.7666733286476418</v>
       </c>
     </row>
     <row r="19">
@@ -941,13 +941,13 @@
         <v>2017</v>
       </c>
       <c r="C19">
-        <v>0.06770300099710823</v>
+        <v>0.06578011217259203</v>
       </c>
       <c r="D19">
-        <v>0.06141822068030863</v>
+        <v>0.06004006643855654</v>
       </c>
       <c r="E19">
-        <v>0.07398778131390782</v>
+        <v>0.07152015790662751</v>
       </c>
       <c r="F19">
         <v>0.0462</v>
@@ -959,7 +959,7 @@
         <v>0.04855372045918796</v>
       </c>
       <c r="I19">
-        <v>1.46543292201533</v>
+        <v>1.423811951787706</v>
       </c>
     </row>
   </sheetData>

--- a/Manuscript_items/Framingham_table.xlsx
+++ b/Manuscript_items/Framingham_table.xlsx
@@ -407,7 +407,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B2">
@@ -500,7 +500,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B5">
@@ -593,7 +593,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B8">
@@ -686,7 +686,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B11">
@@ -779,7 +779,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B14">
@@ -872,7 +872,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B17">
